--- a/station_out_config/CoordinateSystem.xlsx
+++ b/station_out_config/CoordinateSystem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,50 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dependent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_out_config/CoordinateSystem.xlsx
+++ b/station_out_config/CoordinateSystem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>co_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>co_x</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>co_y</t>
         </is>
@@ -484,14 +474,12 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
@@ -506,14 +494,12 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
